--- a/bankDB.xlsx
+++ b/bankDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulrashid/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD91820D-87C5-0B41-A8DB-7E3EE24EA2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9B2379-F004-3F46-B98C-651B677A442E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{465CF443-2D29-D84B-B3AE-A730D5DB74AD}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{465CF443-2D29-D84B-B3AE-A730D5DB74AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>National Bank of Bahrain B.S.C. - NBB</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Bahrain Development Bank B.S.C. - BDB</t>
   </si>
   <si>
-    <t>Al Salam Bank</t>
-  </si>
-  <si>
     <t>BNP Paribas</t>
   </si>
   <si>
@@ -328,6 +325,21 @@
   </si>
   <si>
     <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Al-Salam Bank (Bahrain) B.S.C.</t>
+  </si>
+  <si>
+    <t>Bahrain Islamic Bank B.S.C. - BisB</t>
+  </si>
+  <si>
+    <t>Khaleeji Commercial Bank B.S.C. - KHCB</t>
+  </si>
+  <si>
+    <t>Kuwait Finance House (Bahrain) B.S.C. (c) - KFH</t>
+  </si>
+  <si>
+    <t>American Express Middle East</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B6ABF5-B81D-6548-84B2-B256C6F60284}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,426 +729,444 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="National Bank of Bahrain" display="https://en.wikipedia.org/wiki/National_Bank_of_Bahrain" xr:uid="{21D5A43B-D89B-C84D-B551-CEB6B6D7C3B4}"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="Bank of Bahrain and Kuwait" display="https://en.wikipedia.org/wiki/Bank_of_Bahrain_and_Kuwait" xr:uid="{64BC1A7A-8FC0-BF47-A3AB-C6E7E969F2B3}"/>
-    <hyperlink ref="A4" r:id="rId3" tooltip="Ahli United Bank" display="https://en.wikipedia.org/wiki/Ahli_United_Bank" xr:uid="{C61F4963-4F46-664C-B6E9-B0979A9916A6}"/>
-    <hyperlink ref="A5" r:id="rId4" tooltip="Arab Bank" display="https://en.wikipedia.org/wiki/Arab_Bank" xr:uid="{04498379-382D-4D43-AC05-8651F06B7A30}"/>
-    <hyperlink ref="A6" r:id="rId5" tooltip="Al Baraka Banking Group" display="https://en.wikipedia.org/wiki/Al_Baraka_Banking_Group" xr:uid="{98EA114B-CA58-D24D-8995-B635877FBDBF}"/>
-    <hyperlink ref="A7" r:id="rId6" tooltip="Ithmaar Bank" display="https://en.wikipedia.org/wiki/Ithmaar_Bank" xr:uid="{5D8B2F52-E877-B74D-A406-02BFEE432198}"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="Bahrain Development Bank" display="https://en.wikipedia.org/wiki/Bahrain_Development_Bank" xr:uid="{0668B4ED-DD4A-2D41-AD6B-319ABE666FB0}"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="Al Salam Bank (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Al_Salam_Bank&amp;action=edit&amp;redlink=1" xr:uid="{3AC72929-A3A0-CC4E-84C2-8CE4C8091E02}"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="BNP Paribas" display="https://en.wikipedia.org/wiki/BNP_Paribas" xr:uid="{563A7962-3002-B841-8814-3C51110E3902}"/>
-    <hyperlink ref="A11" r:id="rId10" tooltip="Citibank" display="https://en.wikipedia.org/wiki/Citibank" xr:uid="{A1D368DE-1B40-944B-9289-C46F859EC449}"/>
-    <hyperlink ref="A12" r:id="rId11" tooltip="Credit Libanais (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Credit_Libanais&amp;action=edit&amp;redlink=1" xr:uid="{0FCF0DB9-BA18-D44D-B5AC-8A539D96A9C6}"/>
-    <hyperlink ref="A13" r:id="rId12" tooltip="Eskan Bank (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Eskan_Bank&amp;action=edit&amp;redlink=1" xr:uid="{0A4CD9E4-49FE-0449-B49E-A711F60119C1}"/>
-    <hyperlink ref="A14" r:id="rId13" tooltip="HBL Pakistan" display="https://en.wikipedia.org/wiki/HBL_Pakistan" xr:uid="{EBD59A00-483B-C340-8A49-35F79F940D58}"/>
-    <hyperlink ref="A15" r:id="rId14" tooltip="HSBC Bank Middle East" display="https://en.wikipedia.org/wiki/HSBC_Bank_Middle_East" xr:uid="{D0221410-C48A-CE46-96D2-AAD1D6EC013D}"/>
-    <hyperlink ref="A16" r:id="rId15" tooltip="ICICI Bank" display="https://en.wikipedia.org/wiki/ICICI_Bank" xr:uid="{50945319-C1B4-8249-9A45-7AD7BE592F66}"/>
-    <hyperlink ref="A17" r:id="rId16" tooltip="Mashreq Bank" display="https://en.wikipedia.org/wiki/Mashreq_Bank" xr:uid="{4ABDDD55-A2CE-E648-902D-D9717217B9CF}"/>
-    <hyperlink ref="A18" r:id="rId17" tooltip="National Bank of Abu Dhabi" display="https://en.wikipedia.org/wiki/National_Bank_of_Abu_Dhabi" xr:uid="{2E804392-80B1-734E-882B-B6CE9B1981B4}"/>
-    <hyperlink ref="A19" r:id="rId18" tooltip="National Bank of Kuwait" display="https://en.wikipedia.org/wiki/National_Bank_of_Kuwait" xr:uid="{D07BE01B-6800-8B4B-8050-056F01633072}"/>
-    <hyperlink ref="A20" r:id="rId19" tooltip="Standard Chartered Bank" display="https://en.wikipedia.org/wiki/Standard_Chartered_Bank" xr:uid="{1D9E0899-BC57-FE4E-8953-7F194EBFB946}"/>
-    <hyperlink ref="A21" r:id="rId20" tooltip="State Bank of India" display="https://en.wikipedia.org/wiki/State_Bank_of_India" xr:uid="{2DCE1BC6-44F4-D444-8ACA-3C6FEC011691}"/>
-    <hyperlink ref="A22" r:id="rId21" tooltip="United Bank (Pakistan)" display="https://en.wikipedia.org/wiki/United_Bank_(Pakistan)" xr:uid="{CDB6FCDE-BA6B-7746-BD72-A43A27FEC71D}"/>
-    <hyperlink ref="E5" r:id="rId22" xr:uid="{43DE7907-23B2-CA4F-AF11-D3D568B38B67}"/>
-    <hyperlink ref="E2" r:id="rId23" xr:uid="{A967523C-3546-0B42-8F95-2EA813B82FAF}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{43DE7907-23B2-CA4F-AF11-D3D568B38B67}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{A967523C-3546-0B42-8F95-2EA813B82FAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1151,218 +1182,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
